--- a/excel_with_subclasses/with_count/fluid_flow_with_count.xlsx
+++ b/excel_with_subclasses/with_count/fluid_flow_with_count.xlsx
@@ -2470,7 +2470,7 @@
         <v>600</v>
       </c>
       <c r="D4">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="5" spans="1:4">
